--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,404 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_2</t>
+          <t>model_11_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4306767253258936</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>-70.73648181239895</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1033719140247139</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.459608832579113</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F2" t="n">
-        <v>1.583337664604187</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>8.519105911254883</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H2" t="n">
-        <v>1.136492967605591</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I2" t="n">
-        <v>5.044930934906006</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_3</t>
+          <t>model_11_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4174255805037412</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>-70.12636177583211</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1090084365042808</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.397928142020538</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F3" t="n">
-        <v>1.56867241859436</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>8.446651458740234</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H3" t="n">
-        <v>1.129348516464233</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I3" t="n">
-        <v>5.00321626663208</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_4</t>
+          <t>model_11_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4089811669299781</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>-69.79207436590342</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1146015381358795</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.361917462205556</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F4" t="n">
-        <v>1.559327006340027</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>8.406951904296875</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H4" t="n">
-        <v>1.122259140014648</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I4" t="n">
-        <v>4.978862762451172</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_5</t>
+          <t>model_11_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3845246556050221</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>-68.48535910733058</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1159658342632861</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.239203455503866</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F5" t="n">
-        <v>1.532260775566101</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>8.251771926879883</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H5" t="n">
-        <v>1.120529890060425</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I5" t="n">
-        <v>4.895870208740234</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_6</t>
+          <t>model_11_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3704835045940844</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>-67.81228329597167</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1208278610333925</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.172380242781173</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F6" t="n">
-        <v>1.516721367835999</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>8.171840667724609</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H6" t="n">
-        <v>1.114367246627808</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I6" t="n">
-        <v>4.850677967071533</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_7</t>
+          <t>model_11_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3543389355431967</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>-67.43363558378924</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1432674497316324</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.117382741326918</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F7" t="n">
-        <v>1.498853921890259</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>8.126873970031738</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H7" t="n">
-        <v>1.085924625396729</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I7" t="n">
-        <v>4.813483715057373</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_8</t>
+          <t>model_11_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3524647481322869</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>-67.44367465129541</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1475511221349701</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.114547868811348</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F8" t="n">
-        <v>1.496780037879944</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>8.128066062927246</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H8" t="n">
-        <v>1.080494999885559</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I8" t="n">
-        <v>4.811566352844238</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_10</t>
+          <t>model_11_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3450502861757339</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>-67.34478026480269</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1594679494841708</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.094798486163257</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F9" t="n">
-        <v>1.488574385643005</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>8.116321563720703</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H9" t="n">
-        <v>1.065390110015869</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I9" t="n">
-        <v>4.798209667205811</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_9</t>
+          <t>model_11_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3440488966843014</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>-67.05300076162771</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1499736426085549</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.076121824747405</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F10" t="n">
-        <v>1.487466096878052</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>8.081671714782715</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H10" t="n">
-        <v>1.07742440700531</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I10" t="n">
-        <v>4.785578727722168</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_11</t>
+          <t>model_11_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3357657134795096</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>-66.89363695904584</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1617827017353086</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.050894939237295</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F11" t="n">
-        <v>1.478299021720886</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>8.062746047973633</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H11" t="n">
-        <v>1.062456130981445</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I11" t="n">
-        <v>4.76851749420166</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_12</t>
+          <t>model_11_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3300996535244787</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>-66.65332967797811</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1642867244471173</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.026310640231113</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F12" t="n">
-        <v>1.472028374671936</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>8.034208297729492</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H12" t="n">
-        <v>1.059282302856445</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I12" t="n">
-        <v>4.751891613006592</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_1</t>
+          <t>model_11_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2183176503402048</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>-23.5810361636521</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5726033595670517</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.6620684951568</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8650919795036316</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>2.919134378433228</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5417332649230957</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I13" t="n">
-        <v>1.800356030464172</v>
+        <v>0.780625581741333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_0</t>
+          <t>model_11_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.585154070461954</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3538518444231054</v>
+        <v>0.4729774674609699</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6675912441981253</v>
+        <v>0.3599361836854361</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6467526074101314</v>
+        <v>0.460666355196278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4591121971607208</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07673367857933044</v>
+        <v>0.9884014129638672</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4213343262672424</v>
+        <v>0.5468775033950806</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2389010488986969</v>
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_9</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_8</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_7</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_6</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_4</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_2</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_11</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.780625581741333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3494677884409869</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4729774674609699</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3599361836854361</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.460666355196278</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7199474573135376</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9884014129638672</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5468775033950806</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.780625581741333</v>
       </c>
     </row>
   </sheetData>
